--- a/Pandas/files/excel_clipboard.xlsx
+++ b/Pandas/files/excel_clipboard.xlsx
@@ -14,54 +14,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Comentarios / Vídeos</t>
-  </si>
-  <si>
-    <t>Sala de Zoom</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Clase</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>NumPy I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandas I </t>
-  </si>
-  <si>
-    <t>Presentación Proyecto 2</t>
-  </si>
-  <si>
-    <t>Numpy II</t>
-  </si>
-  <si>
-    <t>Promo C: sala principal DA</t>
-  </si>
-  <si>
-    <t>2022-12-01 8:09:01</t>
-  </si>
-  <si>
-    <t>2022-12-01 10:42:02</t>
-  </si>
-  <si>
-    <t>2022-12-01 13:16:22</t>
-  </si>
-  <si>
-    <t>2022-12-02 8:19:24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Contenido mínimo</t>
+  </si>
+  <si>
+    <t>Datos personales</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Perfil profesional</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Experiencia</t>
+  </si>
+  <si>
+    <t>Como mínimo debe incluir :
+1. Nombre y apellidos
+2. Móvil
+3. Email
+4. LinkedIn
+5. GitHub
+6. Opcional: redes sociales/página web propia/portfolio /ciudad</t>
+  </si>
+  <si>
+    <t>Se aconseja incluir una foto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve párrafo corto introductorio que te describa, destaque tus logros y ponga en valor tu perfil profesional antes de entrar en Adalab y tu motivación por el sector tecnológico </t>
+  </si>
+  <si>
+    <t>Debe incluir: 
+1. Nombre del proyecto con fecha de realización
+2. Breve descripción del proyecto (stack utilizado, funcionalidades)
+3. Link al github/página web donde ver el proyecto (cuidado con incluir proyectos que no sean open source)
+4. Si se ha hecho en colaboración con una empresa, incluir el nombre de la empresa</t>
+  </si>
+  <si>
+    <t>1. Siempre se detallará la experiencia en orden cronológico inverso. 
+2. Si se acumulan muchos trabajos similares de corta duración, intentar agruparlos bajo una temática común (por ejemplo: “Atención al Cliente”, “Labores administrativas” ...sin detallar cada nombre de empleador)
+3. Incluir fechas
+4. Si aporta, incluir principales funciones desempeñadas en cada puesto</t>
   </si>
 </sst>
 </file>
@@ -419,81 +420,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -503,11 +477,16 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
